--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>001887</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合E</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>166019</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>001275</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>中邮创新优势灵活配置混合</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>87.08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>24.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>004355</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>嘉实丰和灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>21.81</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004355</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实丰和灵活配置混合</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2493,4 +2494,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,17 +2514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2533,14 +2554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2549,14 +2592,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2565,14 +2630,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2581,13 +2752,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2815,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2831,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -2752,14 +2847,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2768,13 +2863,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2910,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2926,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -2847,14 +2942,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -2863,14 +2958,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2879,13 +2974,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.97</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5220</t>
+          <t>0.4741</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5923</t>
+          <t>0.5220</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +805,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -957,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1165,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1259,7 +1370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
+++ b/数据整理/stocks/A股/上证主板/603096-新经典.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1430,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001044</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>嘉实新消费股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -777,26 +1686,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5220</t>
+          <t>0.4741</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -871,26 +1780,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5923</t>
+          <t>0.5220</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +1808,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1068,7 +2071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1276,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1370,7 +2373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2374,744 +3377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2259</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1927</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1772</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1677</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1677</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1466</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1311</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1039</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>